--- a/Sintaxis/Extra_1_Python_Syntax/TABLA_PARSING.xlsx
+++ b/Sintaxis/Extra_1_Python_Syntax/TABLA_PARSING.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -74,12 +74,6 @@
     <t>global</t>
   </si>
   <si>
-    <t>non_local</t>
-  </si>
-  <si>
-    <t>CALCULAR SIGUIENTES</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
@@ -93,13 +87,124 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>nonlocal</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>S(S) = { $ }</t>
+  </si>
+  <si>
+    <t>S(C) = { $, global, nonlocal, id, def }</t>
+  </si>
+  <si>
+    <t>S(B) = { $, global, nonlocal, id, def }</t>
+  </si>
+  <si>
+    <t>S(A) = { $, global, nonlocal, id, def }</t>
+  </si>
+  <si>
+    <t>S(D) = { $, global, nonlocal, id, def }</t>
+  </si>
+  <si>
+    <t>S -&gt; C</t>
+  </si>
+  <si>
+    <t>C -&gt; B</t>
+  </si>
+  <si>
+    <t>B -&gt; A</t>
+  </si>
+  <si>
+    <t>B -&gt; D</t>
+  </si>
+  <si>
+    <t>C -&gt; C B</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>A -&gt; global id ;</t>
+  </si>
+  <si>
+    <t>A -&gt; nonlocal id ;</t>
+  </si>
+  <si>
+    <t>A -&gt; id = id ;</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>A -&gt; id = cte ;</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>D -&gt; def id ( ) :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,8 +228,42 @@
       <color theme="1"/>
       <name val="Courier New"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +288,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -173,18 +324,280 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,11 +605,107 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,342 +984,890 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:Q21"/>
+  <dimension ref="B1:AA25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="10.83203125" style="3" customWidth="1"/>
-    <col min="3" max="10" width="10.83203125" style="3"/>
-    <col min="11" max="11" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="2:27" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="6"/>
+    </row>
+    <row r="3" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="29">
+        <v>1</v>
+      </c>
+      <c r="O3" s="30">
+        <v>2</v>
+      </c>
+      <c r="P3" s="30">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="31">
+        <v>4</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="9"/>
+    </row>
+    <row r="4" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30">
+        <v>9</v>
+      </c>
+      <c r="P4" s="30">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="31">
+        <v>4</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="9"/>
+    </row>
+    <row r="5" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="18"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="9"/>
+    </row>
+    <row r="6" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="17">
+        <v>3</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="26"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="18"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="9"/>
+    </row>
+    <row r="7" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17">
+        <v>4</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="26"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="18"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="U7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="9"/>
+    </row>
+    <row r="8" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17">
+        <v>5</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="18"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="9"/>
+    </row>
+    <row r="9" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17">
+        <v>6</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="18"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="9"/>
+    </row>
+    <row r="10" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="18"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="9"/>
+    </row>
+    <row r="11" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17">
+        <v>8</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="18"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="9"/>
+    </row>
+    <row r="12" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17">
+        <v>9</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="26"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="18"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="9"/>
+    </row>
+    <row r="13" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="18"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="9"/>
+    </row>
+    <row r="14" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="18"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="9"/>
+    </row>
+    <row r="15" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17">
+        <v>12</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="18"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="9"/>
+    </row>
+    <row r="16" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="18"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="9"/>
+    </row>
+    <row r="17" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="26"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="18"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="9"/>
+    </row>
+    <row r="18" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17">
+        <v>15</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="26"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="18"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="9"/>
+    </row>
+    <row r="19" spans="2:27" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="17">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="18"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="12"/>
+    </row>
+    <row r="20" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17">
         <v>19</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="C22" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="26"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17">
         <v>20</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="C23" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" s="26"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="2:27" ht="31" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="16" spans="2:17" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" ht="31" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="2:27" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="19">
+        <v>22</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" s="27"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
